--- a/data/hotels_by_city/Dallas/Dallas_shard_10.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>John J</t>
+  </si>
+  <si>
     <t>05/25/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>First of all Laura was working the night shift and she was more concerned about me at 1:30AM than anything else! She wanted to make sure everything was OK.Second, I doing review much at all so, when I do, it's because there is something to say!The room was ABOVE AVERAGE for the price I paid, Spacious and in great condition (over-sized tub WOW).I left 15 minutes after breakfast was done being served and was almost completely broken down. The desk person made sure i go a little something before I left and went in the back to get some.Customer Service - something you don't wxpect at tis level!More</t>
   </si>
   <si>
+    <t>Sabrina P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r563921977-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>The staff were friendly and the room was clean. They were helpful to anything that we asked and didn’t mind giving us extra chairs. Want to stay again to try out the pool and will come when it gets warmer to do that. More</t>
   </si>
   <si>
+    <t>flowermay2006</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r561949122-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>This was the best stay I've ever had. Our truck ending up breaking down on our way home so we stayed here for the night. Not only was the staff most pleasant, they helped us in any way we needed. They went out of there way to help us. The most pleasant and helpful people I've meet in a long time.  More</t>
   </si>
   <si>
+    <t>Diaz1414</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r496236160-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>It was a last room availability booking. And at a great rate. Especially for the convention that was close by. The rate did not go up because of it. AWESOME! Room was very comfortable and very clean. Excellent customer service. Great location.More</t>
   </si>
   <si>
+    <t>ShadowwolfI99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r491105535-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>Apart from Raymond, who is the day time desk clerk, the place has been rather nice. We have had an extended stay and staff has been very accommodating. The rooms are still under renovation, and the pool is currently under way, however lack of desk staff has the maintenance in charge of working on the equipment and other tasks so overworked that I have not seen him get much rest, and Raymond has been really hard on him. Some times I have heard Raymond yelling and even being aggressive towards him. Housekeeping has been really nice and are easy to talk with and work around your requests. The general manager has been really helpful as well as he listens to your problems and does what he can to assist. If the issue concerning Raymond's attitude and or lack of effort towards wanting business was addressed this place could flourish on a better scale, and my review could become a full 5 star. Thank you!More</t>
   </si>
   <si>
+    <t>singgreene01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r486736297-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -327,6 +345,9 @@
     <t>Late Night staff,Denis was very very helpful,Denis provided above and beyond service...the bed was great!!! Could not belive  how firm the mattress and pillows were...will definitely stay here again..hotel is almost totally renovated.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r476636938-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>The desk guys were really quick and super nice. Really cheap too especially for the price. Comfy bed and blankets also with a good breakfast. Stays pretty quiet throughout the night.Definitely wouldnt mind staying here next time we pass through decatur.More</t>
   </si>
   <si>
+    <t>TGMoore94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r472009979-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -382,6 +406,9 @@
   </si>
   <si>
     <t>The room was "nicer" than expected, lobby was kinda sketchy. We had to stand at the desk, with another client, for about 15 minutes waiting on the clerk. The guy that finally came was very nice though, and he made up for it and said he was doing a repair. I couldn't stand the mattress, it was unbearably hard. The morning after our night staying, I found out that the window, which actually opens, was unlocked, which was concerning, seeing as there are no lights behind the building, and anyone could just open the window. We decided to not stay the second night of our reservation, I wanted to actually get a good night's sleep. But despite the problems, they definitely have good customer service, the man was very interacting, and made sure we didn't need anything every time we went through the lobby. More</t>
+  </si>
+  <si>
+    <t>dominion21</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r471386688-Americas_Best_Value_Inn-Decatur_Texas.html</t>
@@ -937,43 +964,47 @@
       <c r="A2" t="n">
         <v>42972</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>12779</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -991,56 +1022,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42972</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>118111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1052,56 +1087,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42972</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>118112</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1113,56 +1152,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42972</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>118113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1178,56 +1221,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42972</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>118114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1245,56 +1292,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42972</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>118115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1310,56 +1361,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="Y7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42972</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>109</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1371,56 +1426,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42972</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>118116</v>
+      </c>
+      <c r="C9" t="s">
+        <v>119</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1432,56 +1491,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42972</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>118117</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1493,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
@@ -1512,37 +1575,37 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1554,13 +1617,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_10.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_10.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>John J</t>
-  </si>
-  <si>
-    <t>05/25/2018</t>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r600614067-Americas_Best_Value_Inn-Decatur_Texas.html</t>
+  </si>
+  <si>
+    <t>55725</t>
+  </si>
+  <si>
+    <t>579439</t>
+  </si>
+  <si>
+    <t>600614067</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Needs Some Attention</t>
+  </si>
+  <si>
+    <t>I can’t recommend this property, it has some attention.  My son immediately noticed both towels on the rack were visibly dirty, one with a large dark area, the other with cream colored stains.  He went down and exchanged them.  The room needed some basic repairs, the tile was damaged on the bathroom floor, tiles cracked and grout missing.  The border tiles looked dirty.  The shower curtain rod was damaged and bent.  It didn’t leave a good impression.  See pictures.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r572035184-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
-    <t>55725</t>
-  </si>
-  <si>
-    <t>579439</t>
-  </si>
-  <si>
     <t>572035184</t>
   </si>
   <si>
@@ -189,9 +207,6 @@
     <t>First of all Laura was working the night shift and she was more concerned about me at 1:30AM than anything else! She wanted to make sure everything was OK.Second, I doing review much at all so, when I do, it's because there is something to say!The room was ABOVE AVERAGE for the price I paid, Spacious and in great condition (over-sized tub WOW).I left 15 minutes after breakfast was done being served and was almost completely broken down. The desk person made sure i go a little something before I left and went in the back to get some.Customer Service - something you don't wxpect at tis level!More</t>
   </si>
   <si>
-    <t>Sabrina P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r563921977-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -210,9 +225,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Jay H, Front Office Manager at Americas Best Value Inn, responded to this reviewResponded March 5, 2018</t>
   </si>
   <si>
@@ -222,9 +234,6 @@
     <t>The staff were friendly and the room was clean. They were helpful to anything that we asked and didn’t mind giving us extra chairs. Want to stay again to try out the pool and will come when it gets warmer to do that. More</t>
   </si>
   <si>
-    <t>flowermay2006</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r561949122-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -255,9 +264,6 @@
     <t>This was the best stay I've ever had. Our truck ending up breaking down on our way home so we stayed here for the night. Not only was the staff most pleasant, they helped us in any way we needed. They went out of there way to help us. The most pleasant and helpful people I've meet in a long time.  More</t>
   </si>
   <si>
-    <t>Diaz1414</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r496236160-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -288,9 +294,6 @@
     <t>It was a last room availability booking. And at a great rate. Especially for the convention that was close by. The rate did not go up because of it. AWESOME! Room was very comfortable and very clean. Excellent customer service. Great location.More</t>
   </si>
   <si>
-    <t>ShadowwolfI99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r491105535-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -318,9 +321,6 @@
     <t>Apart from Raymond, who is the day time desk clerk, the place has been rather nice. We have had an extended stay and staff has been very accommodating. The rooms are still under renovation, and the pool is currently under way, however lack of desk staff has the maintenance in charge of working on the equipment and other tasks so overworked that I have not seen him get much rest, and Raymond has been really hard on him. Some times I have heard Raymond yelling and even being aggressive towards him. Housekeeping has been really nice and are easy to talk with and work around your requests. The general manager has been really helpful as well as he listens to your problems and does what he can to assist. If the issue concerning Raymond's attitude and or lack of effort towards wanting business was addressed this place could flourish on a better scale, and my review could become a full 5 star. Thank you!More</t>
   </si>
   <si>
-    <t>singgreene01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r486736297-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -345,9 +345,6 @@
     <t>Late Night staff,Denis was very very helpful,Denis provided above and beyond service...the bed was great!!! Could not belive  how firm the mattress and pillows were...will definitely stay here again..hotel is almost totally renovated.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r476636938-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -375,9 +372,6 @@
     <t>The desk guys were really quick and super nice. Really cheap too especially for the price. Comfy bed and blankets also with a good breakfast. Stays pretty quiet throughout the night.Definitely wouldnt mind staying here next time we pass through decatur.More</t>
   </si>
   <si>
-    <t>TGMoore94</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r472009979-Americas_Best_Value_Inn-Decatur_Texas.html</t>
   </si>
   <si>
@@ -406,9 +400,6 @@
   </si>
   <si>
     <t>The room was "nicer" than expected, lobby was kinda sketchy. We had to stand at the desk, with another client, for about 15 minutes waiting on the clerk. The guy that finally came was very nice though, and he made up for it and said he was doing a repair. I couldn't stand the mattress, it was unbearably hard. The morning after our night staying, I found out that the window, which actually opens, was unlocked, which was concerning, seeing as there are no lights behind the building, and anyone could just open the window. We decided to not stay the second night of our reservation, I wanted to actually get a good night's sleep. But despite the problems, they definitely have good customer service, the man was very interacting, and made sure we didn't need anything every time we went through the lobby. More</t>
-  </si>
-  <si>
-    <t>dominion21</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55725-d579439-r471386688-Americas_Best_Value_Inn-Decatur_Texas.html</t>
@@ -964,183 +955,167 @@
       <c r="A2" t="n">
         <v>42972</v>
       </c>
-      <c r="B2" t="n">
-        <v>12779</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="n">
-        <v>4</v>
-      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>54</v>
-      </c>
-      <c r="X2" t="s">
-        <v>55</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42972</v>
       </c>
-      <c r="B3" t="n">
-        <v>118111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
         <v>46</v>
       </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42972</v>
       </c>
-      <c r="B4" t="n">
-        <v>118112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1152,202 +1127,186 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42972</v>
       </c>
-      <c r="B5" t="n">
-        <v>118113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42972</v>
       </c>
-      <c r="B6" t="n">
-        <v>118114</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
         <v>5</v>
       </c>
+      <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42972</v>
       </c>
-      <c r="B7" t="n">
-        <v>118115</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>64</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
       <c r="Q7" t="n">
         <v>5</v>
       </c>
@@ -1355,131 +1314,127 @@
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42972</v>
       </c>
-      <c r="B8" t="n">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>109</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
         <v>5</v>
       </c>
-      <c r="N8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42972</v>
       </c>
-      <c r="B9" t="n">
-        <v>118116</v>
-      </c>
-      <c r="C9" t="s">
-        <v>119</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="J9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="K9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1491,60 +1446,56 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42972</v>
       </c>
-      <c r="B10" t="n">
-        <v>118117</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1556,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="X10" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
@@ -1575,37 +1526,37 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="O11" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1617,13 +1568,74 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="X11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="Y11" t="s">
-        <v>147</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42972</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
